--- a/DateBase/orders/Nha Thu_2025-8-18.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-18.xlsx
@@ -694,6 +694,9 @@
       <c r="C31" t="str">
         <v>707_永生吊米白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="C32" t="str">
@@ -1063,7 +1066,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020510151010555105106562161310101815201520102010010101010101510103025401010151552151115151586412131725105103310</v>
+        <v>020205101510105551051065621613101018152015201020101010101010101510103025401010151552151115151586412131725105103310</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
